--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efemp1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efemp1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.412064666666667</v>
+        <v>0.9023566666666666</v>
       </c>
       <c r="H2">
-        <v>4.236194</v>
+        <v>2.70707</v>
       </c>
       <c r="I2">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="J2">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>2.618775122301111</v>
+        <v>1.237019398558889</v>
       </c>
       <c r="R2">
-        <v>23.56897610071</v>
+        <v>11.13317458703</v>
       </c>
       <c r="S2">
-        <v>0.0003767048902682046</v>
+        <v>0.0001669080913850617</v>
       </c>
       <c r="T2">
-        <v>0.0003767048902682047</v>
+        <v>0.0001669080913850616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.412064666666667</v>
+        <v>0.9023566666666666</v>
       </c>
       <c r="H3">
-        <v>4.236194</v>
+        <v>2.70707</v>
       </c>
       <c r="I3">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="J3">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>131.2001871795069</v>
+        <v>83.84131857701222</v>
       </c>
       <c r="R3">
-        <v>1180.801684615562</v>
+        <v>754.5718671931099</v>
       </c>
       <c r="S3">
-        <v>0.01887285078193179</v>
+        <v>0.01131251011843356</v>
       </c>
       <c r="T3">
-        <v>0.01887285078193179</v>
+        <v>0.01131251011843356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.412064666666667</v>
+        <v>0.9023566666666666</v>
       </c>
       <c r="H4">
-        <v>4.236194</v>
+        <v>2.70707</v>
       </c>
       <c r="I4">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="J4">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>24.53390578379445</v>
+        <v>26.81667216062666</v>
       </c>
       <c r="R4">
-        <v>220.80515205415</v>
+        <v>241.35004944564</v>
       </c>
       <c r="S4">
-        <v>0.003529146969295248</v>
+        <v>0.003618309925328173</v>
       </c>
       <c r="T4">
-        <v>0.003529146969295248</v>
+        <v>0.003618309925328172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.412064666666667</v>
+        <v>0.9023566666666666</v>
       </c>
       <c r="H5">
-        <v>4.236194</v>
+        <v>2.70707</v>
       </c>
       <c r="I5">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="J5">
-        <v>0.02281163608116021</v>
+        <v>0.01513132473647763</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.2289465167946667</v>
+        <v>0.2489972009566666</v>
       </c>
       <c r="R5">
-        <v>2.060518651152</v>
+        <v>2.24097480861</v>
       </c>
       <c r="S5">
-        <v>3.29334396649679E-05</v>
+        <v>3.359660133084114E-05</v>
       </c>
       <c r="T5">
-        <v>3.293343966496791E-05</v>
+        <v>3.359660133084113E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>175.095527</v>
       </c>
       <c r="I6">
-        <v>0.9428783104274645</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="J6">
-        <v>0.9428783104274644</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>108.2424011114228</v>
+        <v>80.01143801227589</v>
       </c>
       <c r="R6">
-        <v>974.1816100028051</v>
+        <v>720.102942110483</v>
       </c>
       <c r="S6">
-        <v>0.01557042507613874</v>
+        <v>0.01079575342404575</v>
       </c>
       <c r="T6">
-        <v>0.01557042507613874</v>
+        <v>0.01079575342404575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>175.095527</v>
       </c>
       <c r="I7">
-        <v>0.9428783104274645</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="J7">
-        <v>0.9428783104274644</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>5422.925842559242</v>
@@ -883,10 +883,10 @@
         <v>48806.33258303317</v>
       </c>
       <c r="S7">
-        <v>0.7800756418744537</v>
+        <v>0.7317025126354163</v>
       </c>
       <c r="T7">
-        <v>0.7800756418744537</v>
+        <v>0.7317025126354162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>175.095527</v>
       </c>
       <c r="I8">
-        <v>0.9428783104274645</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="J8">
-        <v>0.9428783104274644</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>1014.065258244036</v>
+        <v>1734.524539207023</v>
       </c>
       <c r="R8">
-        <v>9126.587324196325</v>
+        <v>15610.7208528632</v>
       </c>
       <c r="S8">
-        <v>0.1458709984597505</v>
+        <v>0.234035279185491</v>
       </c>
       <c r="T8">
-        <v>0.1458709984597505</v>
+        <v>0.2340352791854909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>175.095527</v>
       </c>
       <c r="I9">
-        <v>0.9428783104274645</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="J9">
-        <v>0.9428783104274644</v>
+        <v>0.9787066012115266</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>9.463096121890668</v>
+        <v>16.10534493863567</v>
       </c>
       <c r="R9">
-        <v>85.16786509701602</v>
+        <v>144.948104447721</v>
       </c>
       <c r="S9">
-        <v>0.001361245017121562</v>
+        <v>0.002173055966573651</v>
       </c>
       <c r="T9">
-        <v>0.001361245017121562</v>
+        <v>0.00217305596657365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.005105333333333</v>
+        <v>0.3674753333333333</v>
       </c>
       <c r="H10">
-        <v>6.015316</v>
+        <v>1.102426</v>
       </c>
       <c r="I10">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995734</v>
       </c>
       <c r="J10">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>3.718611539882222</v>
+        <v>0.5037632375504444</v>
       </c>
       <c r="R10">
-        <v>33.46750385894001</v>
+        <v>4.533869137953999</v>
       </c>
       <c r="S10">
-        <v>0.0005349138763967315</v>
+        <v>6.797157796188056E-05</v>
       </c>
       <c r="T10">
-        <v>0.0005349138763967316</v>
+        <v>6.797157796188053E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.005105333333333</v>
+        <v>0.3674753333333333</v>
       </c>
       <c r="H11">
-        <v>6.015316</v>
+        <v>1.102426</v>
       </c>
       <c r="I11">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995734</v>
       </c>
       <c r="J11">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995733</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>186.3018042006298</v>
+        <v>34.14350182063311</v>
       </c>
       <c r="R11">
-        <v>1676.716237805668</v>
+        <v>307.291516385698</v>
       </c>
       <c r="S11">
-        <v>0.02679909401556369</v>
+        <v>0.004606901661140729</v>
       </c>
       <c r="T11">
-        <v>0.0267990940155637</v>
+        <v>0.004606901661140728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005105333333333</v>
+        <v>0.3674753333333333</v>
       </c>
       <c r="H12">
-        <v>6.015316</v>
+        <v>1.102426</v>
       </c>
       <c r="I12">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995734</v>
       </c>
       <c r="J12">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>34.83768590478889</v>
+        <v>10.92080981406133</v>
       </c>
       <c r="R12">
-        <v>313.5391731431</v>
+        <v>98.28728832655199</v>
       </c>
       <c r="S12">
-        <v>0.005011322482103796</v>
+        <v>0.001473518947696157</v>
       </c>
       <c r="T12">
-        <v>0.005011322482103796</v>
+        <v>0.001473518947696157</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005105333333333</v>
+        <v>0.3674753333333333</v>
       </c>
       <c r="H13">
-        <v>6.015316</v>
+        <v>1.102426</v>
       </c>
       <c r="I13">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995734</v>
       </c>
       <c r="J13">
-        <v>0.03239209524048717</v>
+        <v>0.006162074051995733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>0.3250997583253334</v>
+        <v>0.1014015109553333</v>
       </c>
       <c r="R13">
-        <v>2.925897824928001</v>
+        <v>0.9126135985979998</v>
       </c>
       <c r="S13">
-        <v>4.676486642295326E-05</v>
+        <v>1.368186519696716E-05</v>
       </c>
       <c r="T13">
-        <v>4.676486642295327E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1187236666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.356171</v>
-      </c>
-      <c r="I14">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="J14">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.854571666666667</v>
-      </c>
-      <c r="N14">
-        <v>5.563715</v>
-      </c>
-      <c r="O14">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="P14">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="Q14">
-        <v>0.2201815483627778</v>
-      </c>
-      <c r="R14">
-        <v>1.981633935265</v>
-      </c>
-      <c r="S14">
-        <v>3.167261874024578E-05</v>
-      </c>
-      <c r="T14">
-        <v>3.167261874024578E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1187236666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.356171</v>
-      </c>
-      <c r="I15">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="J15">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>92.91372433333333</v>
-      </c>
-      <c r="N15">
-        <v>278.741173</v>
-      </c>
-      <c r="O15">
-        <v>0.8273343794712995</v>
-      </c>
-      <c r="P15">
-        <v>0.8273343794712996</v>
-      </c>
-      <c r="Q15">
-        <v>11.03105803650922</v>
-      </c>
-      <c r="R15">
-        <v>99.279522328583</v>
-      </c>
-      <c r="S15">
-        <v>0.001586792799350414</v>
-      </c>
-      <c r="T15">
-        <v>0.001586792799350414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1187236666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.356171</v>
-      </c>
-      <c r="I16">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="J16">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.37449166666667</v>
-      </c>
-      <c r="N16">
-        <v>52.123475</v>
-      </c>
-      <c r="O16">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="P16">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="Q16">
-        <v>2.062763357136111</v>
-      </c>
-      <c r="R16">
-        <v>18.564870214225</v>
-      </c>
-      <c r="S16">
-        <v>0.0002967238528737961</v>
-      </c>
-      <c r="T16">
-        <v>0.000296723852873796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1187236666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.356171</v>
-      </c>
-      <c r="I17">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="J17">
-        <v>0.001917958250888159</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.162136</v>
-      </c>
-      <c r="N17">
-        <v>0.4864080000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.001443712303133186</v>
-      </c>
-      <c r="P17">
-        <v>0.001443712303133187</v>
-      </c>
-      <c r="Q17">
-        <v>0.01924938041866667</v>
-      </c>
-      <c r="R17">
-        <v>0.173244423768</v>
-      </c>
-      <c r="S17">
-        <v>2.768979923703042E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.768979923703042E-06</v>
+        <v>1.368186519696715E-05</v>
       </c>
     </row>
   </sheetData>
